--- a/spec/fixtures/test-data/test-challenges.xlsx
+++ b/spec/fixtures/test-data/test-challenges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44160" yWindow="-4600" windowWidth="17060" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t>Whitmire.337</t>
   </si>
   <si>
-    <t>Politte.883</t>
-  </si>
-  <si>
     <t>Herbst.123</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>E11</t>
+  </si>
+  <si>
+    <t>Politte.833</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -699,21 +699,21 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,13 +721,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,10 +735,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -746,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,13 +768,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,13 +782,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,13 +840,13 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -865,10 +865,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -876,10 +876,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -898,10 +898,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -909,10 +909,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -920,13 +920,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -934,10 +934,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -945,10 +945,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -956,10 +956,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -967,10 +967,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -978,10 +978,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,10 +989,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1022,10 +1022,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1044,35 +1044,35 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/test-data/test-challenges.xlsx
+++ b/spec/fixtures/test-data/test-challenges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12580" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>A14</t>
   </si>
@@ -658,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,10 +669,11 @@
     <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -682,8 +683,11 @@
       <c r="C1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -693,8 +697,11 @@
       <c r="C2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -704,8 +711,11 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="C4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -726,11 +739,14 @@
       <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -740,8 +756,11 @@
       <c r="C6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -751,8 +770,11 @@
       <c r="C7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,8 +784,11 @@
       <c r="C8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -773,11 +798,14 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -787,11 +815,14 @@
       <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -801,8 +832,11 @@
       <c r="C11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -812,8 +846,11 @@
       <c r="C12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -823,8 +860,11 @@
       <c r="C13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -834,8 +874,11 @@
       <c r="C14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -845,11 +888,14 @@
       <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -859,8 +905,11 @@
       <c r="C16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -870,8 +919,11 @@
       <c r="C17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -881,8 +933,11 @@
       <c r="C18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -892,8 +947,11 @@
       <c r="C19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -903,8 +961,11 @@
       <c r="C20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -914,8 +975,11 @@
       <c r="C21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -925,11 +989,14 @@
       <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -939,8 +1006,11 @@
       <c r="C23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -950,8 +1020,11 @@
       <c r="C24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -961,8 +1034,11 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -972,8 +1048,11 @@
       <c r="C26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -983,8 +1062,11 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -994,8 +1076,11 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1005,8 +1090,11 @@
       <c r="C29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1016,8 +1104,11 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1118,11 @@
       <c r="C31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1038,8 +1132,11 @@
       <c r="C32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1049,11 +1146,14 @@
       <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1063,8 +1163,11 @@
       <c r="C34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1073,6 +1176,23 @@
       </c>
       <c r="C35" t="s">
         <v>100</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/test-data/test-challenges.xlsx
+++ b/spec/fixtures/test-data/test-challenges.xlsx
@@ -661,7 +661,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +990,7 @@
         <v>86</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
@@ -1147,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>87</v>
@@ -1192,7 +1192,7 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/test-data/test-challenges.xlsx
+++ b/spec/fixtures/test-data/test-challenges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12580" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12880" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>A14</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Politte.833</t>
+  </si>
+  <si>
+    <t>Should reject - already made challenge</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,6 +1197,9 @@
       <c r="D36">
         <v>2</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spec/fixtures/test-data/test-challenges.xlsx
+++ b/spec/fixtures/test-data/test-challenges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12880" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-4600" windowWidth="20240" windowHeight="28340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +664,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
